--- a/LD_DC/Excel/订餐报表.xlsx
+++ b/LD_DC/Excel/订餐报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>订餐台账</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>未就餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未预订就餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,10 +120,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -415,43 +419,47 @@
     <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
